--- a/nodes_source_analyses/industry/industry_chemicals_other_steam_recompression_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_other_steam_recompression_electricity.converter.xlsx
@@ -192,9 +192,6 @@
     <t>Technical</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -594,6 +591,10 @@
   <si>
     <t>simult_we</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -604,7 +605,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -820,11 +821,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1468,216 +1464,216 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1770,20 +1766,20 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1803,13 +1799,13 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1868,16 +1864,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1891,9 +1887,9 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1914,7 +1910,7 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1926,8 +1922,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="21" xfId="484"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="21" xfId="484"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1935,38 +1931,38 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="485">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2465,83 +2461,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3501,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3510,7 +3430,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,14 +3563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3672,36 +3592,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="183" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="B2" s="184" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="189"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3775,7 +3695,7 @@
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="163" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="41">
@@ -3784,18 +3704,18 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="163" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="176" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="107">
         <f>9.8/(1+9.8)</f>
@@ -3806,7 +3726,7 @@
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="178" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="107">
@@ -3824,7 +3744,7 @@
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="171" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>2</v>
@@ -3835,11 +3755,11 @@
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="176" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
@@ -3848,7 +3768,7 @@
       <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="41">
@@ -3865,7 +3785,7 @@
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="41">
@@ -3876,7 +3796,7 @@
       <c r="G17" s="105"/>
       <c r="H17" s="105"/>
       <c r="I17" s="176" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J17" s="111"/>
       <c r="K17" s="36"/>
@@ -3884,7 +3804,7 @@
     <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="109"/>
       <c r="C18" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
@@ -3897,14 +3817,14 @@
       <c r="G18" s="105"/>
       <c r="H18" s="105"/>
       <c r="I18" s="170" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" s="111"/>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="109"/>
       <c r="C19" s="105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>2</v>
@@ -3916,7 +3836,7 @@
       <c r="G19" s="105"/>
       <c r="H19" s="105"/>
       <c r="I19" s="170" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -3962,7 +3882,7 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J22" s="91"/>
     </row>
@@ -3972,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="41">
         <f>'Research data'!H22</f>
@@ -3980,21 +3900,21 @@
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="133"/>
       <c r="C24" s="140" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="41">
         <f>'Research data'!H25</f>
@@ -4002,18 +3922,18 @@
       </c>
       <c r="F24" s="136"/>
       <c r="G24" s="134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="136"/>
       <c r="I24" s="164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" s="137"/>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="133"/>
       <c r="C25" s="140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="135"/>
       <c r="E25" s="41">
@@ -4022,18 +3942,18 @@
       </c>
       <c r="F25" s="136"/>
       <c r="G25" s="140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="136"/>
       <c r="I25" s="149" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="137"/>
     </row>
     <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="133"/>
       <c r="C26" s="140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="135"/>
       <c r="E26" s="41">
@@ -4042,18 +3962,18 @@
       </c>
       <c r="F26" s="136"/>
       <c r="G26" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="136"/>
       <c r="I26" s="169" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J26" s="137"/>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="133"/>
       <c r="C27" s="150" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="135"/>
       <c r="E27" s="41">
@@ -4062,18 +3982,18 @@
       </c>
       <c r="F27" s="136"/>
       <c r="G27" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="136"/>
       <c r="I27" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" s="137"/>
     </row>
     <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="133"/>
       <c r="C28" s="140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="135"/>
       <c r="E28" s="41">
@@ -4082,11 +4002,11 @@
       </c>
       <c r="F28" s="136"/>
       <c r="G28" s="141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="136"/>
       <c r="I28" s="149" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="137"/>
     </row>
@@ -4094,21 +4014,21 @@
       <c r="A29" s="108"/>
       <c r="B29" s="109"/>
       <c r="C29" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="112">
         <v>0.1</v>
       </c>
       <c r="F29" s="105"/>
       <c r="G29" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="105"/>
       <c r="I29" s="170" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J29" s="111"/>
     </row>
@@ -4116,10 +4036,10 @@
       <c r="A30" s="108"/>
       <c r="B30" s="109"/>
       <c r="C30" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="E30" s="112">
         <v>1</v>
@@ -4128,15 +4048,15 @@
       <c r="G30" s="105"/>
       <c r="H30" s="105"/>
       <c r="I30" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J30" s="111"/>
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="108"/>
       <c r="B31" s="109"/>
-      <c r="C31" s="192" t="s">
-        <v>152</v>
+      <c r="C31" s="183" t="s">
+        <v>151</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="112">
@@ -4152,8 +4072,8 @@
     <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="108"/>
       <c r="B32" s="109"/>
-      <c r="C32" s="192" t="s">
-        <v>153</v>
+      <c r="C32" s="183" t="s">
+        <v>152</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="112">
@@ -4169,8 +4089,8 @@
     <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="108"/>
       <c r="B33" s="109"/>
-      <c r="C33" s="192" t="s">
-        <v>154</v>
+      <c r="C33" s="183" t="s">
+        <v>153</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="112">
@@ -4186,8 +4106,8 @@
     <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="108"/>
       <c r="B34" s="109"/>
-      <c r="C34" s="192" t="s">
-        <v>155</v>
+      <c r="C34" s="183" t="s">
+        <v>154</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="112">
@@ -4240,11 +4160,11 @@
       </c>
       <c r="F37" s="105"/>
       <c r="G37" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37" s="105"/>
       <c r="I37" s="164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J37" s="111"/>
     </row>
@@ -4252,7 +4172,7 @@
       <c r="A38" s="108"/>
       <c r="B38" s="109"/>
       <c r="C38" s="105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>1</v>
@@ -4263,7 +4183,7 @@
       </c>
       <c r="F38" s="105"/>
       <c r="G38" s="105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" s="105"/>
       <c r="I38" s="107"/>
@@ -4273,10 +4193,10 @@
       <c r="A39" s="108"/>
       <c r="B39" s="109"/>
       <c r="C39" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="E39" s="112">
         <f>'Research data'!H35</f>
@@ -4284,7 +4204,7 @@
       </c>
       <c r="F39" s="105"/>
       <c r="G39" s="105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="105"/>
       <c r="I39" s="107"/>
@@ -4306,7 +4226,7 @@
       <c r="G40" s="105"/>
       <c r="H40" s="105"/>
       <c r="I40" s="170" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J40" s="111"/>
     </row>
@@ -4314,7 +4234,7 @@
       <c r="A41" s="108"/>
       <c r="B41" s="109"/>
       <c r="C41" s="178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="112">
@@ -4330,7 +4250,7 @@
       <c r="A42" s="108"/>
       <c r="B42" s="109"/>
       <c r="C42" s="178" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="112">
@@ -4457,38 +4377,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -4567,35 +4455,35 @@
       </c>
       <c r="G4" s="88"/>
       <c r="H4" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="88"/>
       <c r="J4" s="88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="88" t="str">
         <f>Sources!D19</f>
         <v>DWA</v>
       </c>
       <c r="N4" s="180" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="O4" s="180" t="s">
+      <c r="P4" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="180" t="s">
-        <v>141</v>
-      </c>
       <c r="Q4" s="173" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R4" s="88"/>
       <c r="S4" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4643,7 +4531,7 @@
     <row r="7" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="159" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -4670,7 +4558,7 @@
     <row r="8" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -4696,7 +4584,7 @@
     <row r="9" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -4735,7 +4623,7 @@
     <row r="10" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="178" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4762,7 +4650,7 @@
     <row r="11" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="177" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4790,12 +4678,12 @@
     <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45"/>
       <c r="C12" s="154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="160">
@@ -4819,7 +4707,7 @@
       <c r="A13" s="108"/>
       <c r="B13" s="109"/>
       <c r="C13" s="105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -4843,7 +4731,7 @@
       <c r="Q13" s="108"/>
       <c r="R13" s="108"/>
       <c r="S13" s="139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T13" s="108"/>
     </row>
@@ -4851,12 +4739,12 @@
       <c r="A14" s="108"/>
       <c r="B14" s="109"/>
       <c r="C14" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="106"/>
       <c r="F14" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="110">
         <f>M14</f>
@@ -4880,7 +4768,7 @@
       <c r="A15" s="108"/>
       <c r="B15" s="109"/>
       <c r="C15" s="105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -4904,7 +4792,7 @@
       <c r="A16" s="108"/>
       <c r="B16" s="109"/>
       <c r="C16" s="105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -4929,7 +4817,7 @@
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -4999,7 +4887,7 @@
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="119"/>
       <c r="E21" s="119"/>
@@ -5017,17 +4905,17 @@
       </c>
       <c r="K21" s="121"/>
       <c r="S21" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="108"/>
       <c r="B22" s="109"/>
       <c r="C22" s="124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="125">
         <f>J22</f>
@@ -5045,14 +4933,14 @@
       <c r="Q22" s="121"/>
       <c r="R22" s="121"/>
       <c r="S22" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="108"/>
       <c r="B23" s="109"/>
       <c r="C23" s="124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="126" t="s">
         <v>20</v>
@@ -5078,10 +4966,10 @@
       <c r="A24" s="108"/>
       <c r="B24" s="109"/>
       <c r="C24" s="124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="161">
         <f>J24</f>
@@ -5101,10 +4989,10 @@
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="161">
         <f>H23/H14</f>
@@ -5124,7 +5012,7 @@
       <c r="A26" s="143"/>
       <c r="B26" s="144"/>
       <c r="C26" s="142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="143"/>
       <c r="E26" s="143"/>
@@ -5143,14 +5031,14 @@
       <c r="K26" s="146"/>
       <c r="R26" s="143"/>
       <c r="S26" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="143"/>
       <c r="B27" s="144"/>
       <c r="C27" s="142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="143"/>
       <c r="E27" s="143"/>
@@ -5169,14 +5057,14 @@
       <c r="K27" s="146"/>
       <c r="R27" s="143"/>
       <c r="S27" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="108"/>
       <c r="B28" s="109"/>
       <c r="C28" s="142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="142" t="s">
         <v>20</v>
@@ -5203,12 +5091,12 @@
       <c r="A29" s="143"/>
       <c r="B29" s="144"/>
       <c r="C29" s="148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="143"/>
       <c r="E29" s="143"/>
       <c r="F29" s="142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="143"/>
       <c r="H29" s="145">
@@ -5222,7 +5110,7 @@
       <c r="K29" s="146"/>
       <c r="R29" s="143"/>
       <c r="S29" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -5290,7 +5178,7 @@
       <c r="A34" s="108"/>
       <c r="B34" s="109"/>
       <c r="C34" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="120" t="s">
         <v>1</v>
@@ -5316,10 +5204,10 @@
       <c r="A35" s="108"/>
       <c r="B35" s="109"/>
       <c r="C35" s="119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="110">
         <f t="shared" si="0"/>
@@ -5359,7 +5247,7 @@
       <c r="A37" s="108"/>
       <c r="B37" s="109"/>
       <c r="C37" s="179" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="110">
         <f t="shared" si="0"/>
@@ -5375,7 +5263,7 @@
       <c r="A38" s="108"/>
       <c r="B38" s="109"/>
       <c r="C38" s="179" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="110">
         <f t="shared" si="0"/>
@@ -5391,7 +5279,7 @@
       <c r="A39" s="108"/>
       <c r="B39" s="109"/>
       <c r="C39" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H39" s="110">
         <f t="shared" si="0"/>
@@ -5407,7 +5295,7 @@
       <c r="A40" s="108"/>
       <c r="B40" s="109"/>
       <c r="C40" s="179" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H40" s="110">
         <f t="shared" si="0"/>
@@ -5508,13 +5396,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
@@ -5534,13 +5422,13 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="58"/>
       <c r="C7" s="155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="54">
         <v>2015</v>
@@ -5552,10 +5440,10 @@
         <v>42917</v>
       </c>
       <c r="I7" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -5574,7 +5462,7 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="58"/>
       <c r="C9" s="127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="103"/>
       <c r="E9" s="103"/>
@@ -5586,7 +5474,7 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="58"/>
       <c r="C10" s="128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
@@ -5599,7 +5487,7 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="58"/>
       <c r="C11" s="127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="113"/>
       <c r="E11" s="113"/>
@@ -5672,13 +5560,13 @@
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="58"/>
       <c r="C19" s="172" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="173" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="55">
         <v>2015</v>
@@ -5690,19 +5578,19 @@
         <v>42917</v>
       </c>
       <c r="I19" s="178" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="58"/>
       <c r="C20" s="155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="180" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="54">
@@ -5716,16 +5604,16 @@
       </c>
       <c r="I20" s="54"/>
       <c r="J20" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="58"/>
       <c r="C21" s="155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="180" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="165"/>
       <c r="F21" s="54">
@@ -5738,41 +5626,41 @@
         <v>42917</v>
       </c>
       <c r="I21" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="58"/>
       <c r="C22" s="155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="180" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="180" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="180" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" s="100">
         <v>42917</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C23" s="155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="173" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="55">
         <v>2012</v>
@@ -5784,14 +5672,14 @@
         <v>42917</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H30" s="168"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1"/>
   </hyperlinks>
@@ -5849,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="72" t="s">
         <v>25</v>
@@ -6050,7 +5938,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="70"/>
       <c r="C16" s="98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
@@ -6059,7 +5947,7 @@
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
       <c r="J16" s="98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
@@ -6075,7 +5963,7 @@
         <v>8000</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
@@ -6264,10 +6152,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F29" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
@@ -6287,10 +6175,10 @@
         <v>43.120000000000005</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
@@ -6431,7 +6319,7 @@
       </c>
       <c r="F39" s="71"/>
       <c r="G39" s="151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" s="151"/>
       <c r="I39" s="151"/>
@@ -6452,7 +6340,7 @@
       </c>
       <c r="F40" s="71"/>
       <c r="G40" s="178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" s="151"/>
       <c r="I40" s="151"/>
@@ -6473,7 +6361,7 @@
       </c>
       <c r="F41" s="71"/>
       <c r="G41" s="178" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="151"/>
       <c r="I41" s="151"/>
@@ -6545,16 +6433,16 @@
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="70"/>
       <c r="C48" s="98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" s="174">
         <v>1295</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J48" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K48" s="71"/>
       <c r="L48" s="71"/>
@@ -6608,7 +6496,7 @@
         <v>52</v>
       </c>
       <c r="F52" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
@@ -6628,7 +6516,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K53" s="71"/>
       <c r="L53" s="71"/>
@@ -6644,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K54" s="71"/>
       <c r="L54" s="71"/>
@@ -6664,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K55" s="71"/>
       <c r="L55" s="71"/>
@@ -6688,7 +6576,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G57" s="64" t="s">
         <v>24</v>
@@ -7065,7 +6953,7 @@
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="70"/>
       <c r="C140" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D140" s="64">
         <v>14</v>
@@ -7159,21 +7047,21 @@
       <c r="A163" s="151"/>
       <c r="B163" s="153"/>
       <c r="E163" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="151"/>
       <c r="B164" s="153"/>
       <c r="E164" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="151"/>
       <c r="B165" s="153"/>
       <c r="E165" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -7252,23 +7140,23 @@
       <c r="A184" s="151"/>
       <c r="B184" s="153"/>
       <c r="C184" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E184" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F184" s="181">
         <v>10</v>
       </c>
       <c r="G184" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="151"/>
       <c r="B185" s="153"/>
       <c r="E185" s="178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F185" s="64">
         <f>F184/(1+F184)</f>
@@ -7327,23 +7215,23 @@
       <c r="A198" s="151"/>
       <c r="B198" s="153"/>
       <c r="C198" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E198" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F198" s="64">
         <v>10</v>
       </c>
       <c r="G198" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="151"/>
       <c r="B199" s="153"/>
       <c r="E199" s="178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F199" s="64">
         <f>F198/(1+F198)</f>
@@ -7402,23 +7290,23 @@
       <c r="A212" s="151"/>
       <c r="B212" s="153"/>
       <c r="C212" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E212" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F212" s="64">
         <v>11</v>
       </c>
       <c r="G212" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="151"/>
       <c r="B213" s="153"/>
       <c r="E213" s="178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F213" s="64">
         <f>F212/(1+F212)</f>
@@ -7473,23 +7361,23 @@
       <c r="A225" s="151"/>
       <c r="B225" s="153"/>
       <c r="C225" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E225" s="64" t="s">
         <v>145</v>
-      </c>
-      <c r="E225" s="64" t="s">
-        <v>146</v>
       </c>
       <c r="F225" s="64">
         <v>14.2</v>
       </c>
       <c r="G225" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="151"/>
       <c r="B226" s="153"/>
       <c r="E226" s="178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F226" s="64">
         <f>F225/(1+F225)</f>

--- a/nodes_source_analyses/industry/industry_chemicals_other_steam_recompression_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_other_steam_recompression_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CFD4C4-FA1A-994E-A4D1-64A60AE0932A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
   <si>
     <t>Source</t>
   </si>
@@ -523,18 +524,6 @@
     <t xml:space="preserve">part_load_operating_point </t>
   </si>
   <si>
-    <t>- simult_sd = 1.0</t>
-  </si>
-  <si>
-    <t>- simult_se = 1.0</t>
-  </si>
-  <si>
-    <t>- simult_wd = 1.0</t>
-  </si>
-  <si>
-    <t>- simult_we = 1.0</t>
-  </si>
-  <si>
     <t>http://www.engineerlive.com/content/energy-saving-approach-recycling-steam</t>
   </si>
   <si>
@@ -578,18 +567,6 @@
   </si>
   <si>
     <t>https://refman.energytransitionmodel.com/publications/2061</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
   </si>
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
@@ -599,18 +576,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -799,6 +783,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,6 +791,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,6 +799,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,17 +807,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,12 +828,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -859,11 +851,13 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1187,780 +1181,778 @@
   </borders>
   <cellStyleXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="21" xfId="484"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="21" xfId="484"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2449,13 +2441,16 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Input" xfId="484" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="275"/>
+    <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2473,7 +2468,13 @@
     <xdr:ext cx="3632200" cy="927100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2534,7 +2535,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2572,7 +2579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2610,7 +2623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Afbeelding 2"/>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2648,7 +2667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2686,7 +2711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2747,7 +2778,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2785,7 +2822,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2823,7 +2866,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2861,7 +2910,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3382,40 +3437,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3424,7 +3479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
@@ -3433,7 +3488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3442,29 +3497,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="73" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="74"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="75" t="s">
         <v>27</v>
@@ -3473,33 +3528,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="75"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="75"/>
       <c r="C13" s="78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="75" t="s">
         <v>32</v>
@@ -3508,49 +3563,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="75"/>
       <c r="C17" s="80" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="75"/>
       <c r="C18" s="81" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="75"/>
       <c r="C19" s="82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="83"/>
       <c r="C21" s="85" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
         <v>40</v>
@@ -3563,79 +3618,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="184" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="187"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="192"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="188"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="190"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3646,7 +3701,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="26" customFormat="1">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3667,7 +3722,7 @@
       </c>
       <c r="J9" s="90"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3678,7 +3733,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3691,7 +3746,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="163" t="s">
@@ -3713,7 +3768,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="C13" s="178" t="s">
         <v>129</v>
       </c>
@@ -3722,7 +3777,7 @@
         <v>0.90740740740740744</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="178" t="s">
@@ -3740,7 +3795,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="171" t="s">
@@ -3764,7 +3819,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="177" t="s">
@@ -3781,7 +3836,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="17" thickBot="1">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="138" t="s">
@@ -3801,7 +3856,7 @@
       <c r="J17" s="111"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17" thickBot="1">
       <c r="B18" s="109"/>
       <c r="C18" s="105" t="s">
         <v>56</v>
@@ -3821,7 +3876,7 @@
       </c>
       <c r="J18" s="111"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="B19" s="109"/>
       <c r="C19" s="105" t="s">
         <v>57</v>
@@ -3840,7 +3895,7 @@
       </c>
       <c r="J19" s="111"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -3851,7 +3906,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="91"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="13" t="s">
         <v>43</v>
@@ -3864,7 +3919,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="91"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>22</v>
@@ -3886,7 +3941,7 @@
       </c>
       <c r="J22" s="91"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="39" t="s">
         <v>23</v>
@@ -3908,7 +3963,7 @@
       </c>
       <c r="J23" s="91"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="133"/>
       <c r="C24" s="140" t="s">
         <v>85</v>
@@ -3930,7 +3985,7 @@
       </c>
       <c r="J24" s="137"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="B25" s="133"/>
       <c r="C25" s="140" t="s">
         <v>83</v>
@@ -3950,7 +4005,7 @@
       </c>
       <c r="J25" s="137"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="B26" s="133"/>
       <c r="C26" s="140" t="s">
         <v>84</v>
@@ -3970,7 +4025,7 @@
       </c>
       <c r="J26" s="137"/>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="B27" s="133"/>
       <c r="C27" s="150" t="s">
         <v>95</v>
@@ -3990,7 +4045,7 @@
       </c>
       <c r="J27" s="137"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="B28" s="133"/>
       <c r="C28" s="140" t="s">
         <v>86</v>
@@ -4010,7 +4065,7 @@
       </c>
       <c r="J28" s="137"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="108"/>
       <c r="B29" s="109"/>
       <c r="C29" s="105" t="s">
@@ -4032,7 +4087,7 @@
       </c>
       <c r="J29" s="111"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="A30" s="108"/>
       <c r="B30" s="109"/>
       <c r="C30" s="105" t="s">
@@ -4052,229 +4107,204 @@
       </c>
       <c r="J30" s="111"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="108"/>
       <c r="B31" s="109"/>
-      <c r="C31" s="183" t="s">
-        <v>151</v>
-      </c>
+      <c r="C31" s="105"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="112">
-        <f>'Research data'!H37</f>
-        <v>1</v>
-      </c>
+      <c r="E31" s="115"/>
       <c r="F31" s="105"/>
       <c r="G31" s="105"/>
       <c r="H31" s="105"/>
-      <c r="I31" s="165"/>
+      <c r="I31" s="113"/>
       <c r="J31" s="111"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="A32" s="108"/>
       <c r="B32" s="109"/>
-      <c r="C32" s="183" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="112">
-        <f>'Research data'!H38</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="165"/>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="92"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
       <c r="J32" s="111"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="108"/>
       <c r="B33" s="109"/>
-      <c r="C33" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="23"/>
+      <c r="C33" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="E33" s="112">
-        <f>'Research data'!H39</f>
-        <v>1</v>
+        <f>'Research data'!H33</f>
+        <v>15</v>
       </c>
       <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
+      <c r="G33" s="105" t="s">
+        <v>70</v>
+      </c>
       <c r="H33" s="105"/>
-      <c r="I33" s="165"/>
+      <c r="I33" s="164" t="s">
+        <v>97</v>
+      </c>
       <c r="J33" s="111"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="108"/>
       <c r="B34" s="109"/>
-      <c r="C34" s="183" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="23"/>
+      <c r="C34" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="E34" s="112">
-        <f>'Research data'!H40</f>
-        <v>1</v>
+        <f>'Research data'!H34</f>
+        <v>0</v>
       </c>
       <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
+      <c r="G34" s="105" t="s">
+        <v>69</v>
+      </c>
       <c r="H34" s="105"/>
-      <c r="I34" s="165"/>
+      <c r="I34" s="107"/>
       <c r="J34" s="111"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="108"/>
       <c r="B35" s="109"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="115"/>
+      <c r="C35" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="112">
+        <f>'Research data'!H35</f>
+        <v>0</v>
+      </c>
       <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
+      <c r="G35" s="105" t="s">
+        <v>71</v>
+      </c>
       <c r="H35" s="105"/>
-      <c r="I35" s="113"/>
+      <c r="I35" s="107"/>
       <c r="J35" s="111"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="108"/>
       <c r="B36" s="109"/>
-      <c r="C36" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
+      <c r="C36" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="112">
+        <v>0</v>
+      </c>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="170" t="s">
+        <v>114</v>
+      </c>
       <c r="J36" s="111"/>
     </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="108"/>
       <c r="B37" s="109"/>
-      <c r="C37" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="C37" s="178" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="23"/>
       <c r="E37" s="112">
-        <f>'Research data'!H33</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F37" s="105"/>
-      <c r="G37" s="105" t="s">
-        <v>70</v>
-      </c>
+      <c r="G37" s="105"/>
       <c r="H37" s="105"/>
-      <c r="I37" s="164" t="s">
-        <v>97</v>
-      </c>
+      <c r="I37" s="170"/>
       <c r="J37" s="111"/>
     </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17" thickBot="1">
       <c r="A38" s="108"/>
       <c r="B38" s="109"/>
-      <c r="C38" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="C38" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="23"/>
       <c r="E38" s="112">
-        <f>'Research data'!H34</f>
         <v>0</v>
       </c>
       <c r="F38" s="105"/>
-      <c r="G38" s="105" t="s">
-        <v>69</v>
-      </c>
+      <c r="G38" s="105"/>
       <c r="H38" s="105"/>
-      <c r="I38" s="107"/>
+      <c r="I38" s="170"/>
       <c r="J38" s="111"/>
     </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17" thickBot="1">
       <c r="A39" s="108"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="112">
-        <f>'Research data'!H35</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="111"/>
-    </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="118"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="108"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="112">
-        <v>0</v>
-      </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="170" t="s">
-        <v>114</v>
-      </c>
-      <c r="J40" s="111"/>
-    </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="108"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="178" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="112">
-        <v>0</v>
-      </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="111"/>
-    </row>
-    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="108"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="178" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="112">
-        <v>0</v>
-      </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="111"/>
-    </row>
-    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="108"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="118"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="108"/>
       <c r="B44" s="108"/>
       <c r="C44" s="108"/>
@@ -4286,90 +4316,47 @@
       <c r="I44" s="108"/>
       <c r="J44" s="108"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="108"/>
       <c r="B45" s="108"/>
       <c r="C45" s="108"/>
       <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
       <c r="F45" s="108"/>
       <c r="G45" s="108"/>
       <c r="H45" s="108"/>
       <c r="I45" s="108"/>
       <c r="J45" s="108"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="108"/>
       <c r="B46" s="108"/>
       <c r="C46" s="108"/>
       <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
       <c r="F46" s="108"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108"/>
       <c r="I46" s="108"/>
       <c r="J46" s="108"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="108"/>
       <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
       <c r="F47" s="108"/>
       <c r="G47" s="108"/>
       <c r="H47" s="108"/>
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="108"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="108"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="108"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="108"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="108"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4381,46 +4368,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
-    <col min="12" max="17" width="15.85546875" style="42" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" style="42" customWidth="1"/>
-    <col min="19" max="19" width="37.28515625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
+    <col min="12" max="17" width="15.83203125" style="42" customWidth="1"/>
+    <col min="18" max="18" width="2.33203125" style="42" customWidth="1"/>
+    <col min="19" max="19" width="37.33203125" style="42" customWidth="1"/>
     <col min="20" max="20" width="11" style="42" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" style="42" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" style="42" customWidth="1"/>
-    <col min="23" max="16384" width="10.7109375" style="42"/>
+    <col min="21" max="21" width="2.5" style="42" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" style="42" customWidth="1"/>
+    <col min="23" max="16384" width="10.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="Q1" s="180"/>
-    </row>
-    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
+      <c r="Q1" s="179"/>
+    </row>
+    <row r="2" spans="1:22" ht="17" thickBot="1">
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4434,16 +4421,16 @@
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
       <c r="V3" s="44"/>
     </row>
-    <row r="4" spans="1:22" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="26" customFormat="1">
       <c r="B4" s="25"/>
       <c r="C4" s="88" t="s">
         <v>19</v>
@@ -4469,24 +4456,24 @@
         <f>Sources!D19</f>
         <v>DWA</v>
       </c>
-      <c r="N4" s="180" t="s">
-        <v>138</v>
-      </c>
-      <c r="O4" s="180" t="s">
-        <v>139</v>
-      </c>
-      <c r="P4" s="180" t="s">
+      <c r="N4" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="179" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="179" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="173" t="s">
         <v>140</v>
-      </c>
-      <c r="Q4" s="173" t="s">
-        <v>144</v>
       </c>
       <c r="R4" s="88"/>
       <c r="S4" s="88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18" customHeight="1">
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -4499,14 +4486,14 @@
       <c r="K5" s="47"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
       <c r="P5" s="173"/>
       <c r="Q5" s="47"/>
       <c r="R5" s="47"/>
       <c r="S5" s="53"/>
     </row>
-    <row r="6" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4521,14 +4508,14 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="180"/>
+      <c r="N6" s="179"/>
       <c r="O6" s="173"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="17" thickBot="1">
       <c r="B7" s="45"/>
       <c r="C7" s="159" t="s">
         <v>98</v>
@@ -4555,7 +4542,7 @@
       <c r="R7" s="47"/>
       <c r="S7" s="104"/>
     </row>
-    <row r="8" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="17" thickBot="1">
       <c r="B8" s="45"/>
       <c r="C8" s="177" t="s">
         <v>128</v>
@@ -4570,7 +4557,7 @@
       </c>
       <c r="I8" s="47"/>
       <c r="K8" s="47"/>
-      <c r="L8" s="182">
+      <c r="L8" s="181">
         <v>0</v>
       </c>
       <c r="M8" s="47"/>
@@ -4581,7 +4568,7 @@
       <c r="R8" s="47"/>
       <c r="S8" s="104"/>
     </row>
-    <row r="9" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="17" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="178" t="s">
         <v>129</v>
@@ -4620,7 +4607,7 @@
       <c r="R9" s="47"/>
       <c r="S9" s="104"/>
     </row>
-    <row r="10" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="17" thickBot="1">
       <c r="B10" s="45"/>
       <c r="C10" s="178" t="s">
         <v>130</v>
@@ -4647,7 +4634,7 @@
       <c r="R10" s="47"/>
       <c r="S10" s="104"/>
     </row>
-    <row r="11" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="17" thickBot="1">
       <c r="B11" s="45"/>
       <c r="C11" s="177" t="s">
         <v>120</v>
@@ -4675,7 +4662,7 @@
       <c r="R11" s="47"/>
       <c r="S11" s="51"/>
     </row>
-    <row r="12" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="17" thickBot="1">
       <c r="B12" s="45"/>
       <c r="C12" s="154" t="s">
         <v>96</v>
@@ -4703,7 +4690,7 @@
       <c r="R12" s="47"/>
       <c r="S12" s="104"/>
     </row>
-    <row r="13" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="17" thickBot="1">
       <c r="A13" s="108"/>
       <c r="B13" s="109"/>
       <c r="C13" s="105" t="s">
@@ -4735,7 +4722,7 @@
       </c>
       <c r="T13" s="108"/>
     </row>
-    <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="17" thickBot="1">
       <c r="A14" s="108"/>
       <c r="B14" s="109"/>
       <c r="C14" s="138" t="s">
@@ -4764,7 +4751,7 @@
       <c r="S14" s="139"/>
       <c r="T14" s="108"/>
     </row>
-    <row r="15" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="17" thickBot="1">
       <c r="A15" s="108"/>
       <c r="B15" s="109"/>
       <c r="C15" s="105" t="s">
@@ -4788,7 +4775,7 @@
       <c r="S15" s="139"/>
       <c r="T15" s="108"/>
     </row>
-    <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="17" thickBot="1">
       <c r="A16" s="108"/>
       <c r="B16" s="109"/>
       <c r="C16" s="105" t="s">
@@ -4813,7 +4800,7 @@
       <c r="S16" s="139"/>
       <c r="T16" s="108"/>
     </row>
-    <row r="17" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="17" thickBot="1">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="105" t="s">
@@ -4830,7 +4817,7 @@
       <c r="S17" s="139"/>
       <c r="T17" s="108"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="B18" s="45"/>
       <c r="H18" s="48"/>
       <c r="I18" s="105"/>
@@ -4845,7 +4832,7 @@
       <c r="R18" s="47"/>
       <c r="S18" s="139"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="108"/>
       <c r="B19" s="109"/>
       <c r="C19" s="34"/>
@@ -4863,7 +4850,7 @@
       <c r="R19" s="121"/>
       <c r="S19" s="53"/>
     </row>
-    <row r="20" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="17" thickBot="1">
       <c r="A20" s="108"/>
       <c r="B20" s="109"/>
       <c r="C20" s="12" t="s">
@@ -4883,7 +4870,7 @@
       <c r="R20" s="121"/>
       <c r="S20" s="104"/>
     </row>
-    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="17" thickBot="1">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="124" t="s">
@@ -4908,7 +4895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="17" thickBot="1">
       <c r="A22" s="108"/>
       <c r="B22" s="109"/>
       <c r="C22" s="124" t="s">
@@ -4936,7 +4923,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="17" thickBot="1">
       <c r="A23" s="108"/>
       <c r="B23" s="109"/>
       <c r="C23" s="124" t="s">
@@ -4962,7 +4949,7 @@
       <c r="R23" s="121"/>
       <c r="S23" s="129"/>
     </row>
-    <row r="24" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="17" thickBot="1">
       <c r="A24" s="108"/>
       <c r="B24" s="109"/>
       <c r="C24" s="124" t="s">
@@ -4985,7 +4972,7 @@
       <c r="R24" s="114"/>
       <c r="S24" s="129"/>
     </row>
-    <row r="25" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="17" thickBot="1">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="124" t="s">
@@ -5008,7 +4995,7 @@
       <c r="R25" s="114"/>
       <c r="S25" s="129"/>
     </row>
-    <row r="26" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="17" thickBot="1">
       <c r="A26" s="143"/>
       <c r="B26" s="144"/>
       <c r="C26" s="142" t="s">
@@ -5034,7 +5021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="17" thickBot="1">
       <c r="A27" s="143"/>
       <c r="B27" s="144"/>
       <c r="C27" s="142" t="s">
@@ -5060,7 +5047,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="17" thickBot="1">
       <c r="A28" s="108"/>
       <c r="B28" s="109"/>
       <c r="C28" s="142" t="s">
@@ -5087,7 +5074,7 @@
       <c r="R28" s="114"/>
       <c r="S28" s="129"/>
     </row>
-    <row r="29" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="17" thickBot="1">
       <c r="A29" s="143"/>
       <c r="B29" s="144"/>
       <c r="C29" s="148" t="s">
@@ -5113,20 +5100,20 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="143"/>
       <c r="B30" s="144"/>
       <c r="H30" s="48"/>
       <c r="J30" s="48"/>
       <c r="S30" s="51"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="B31" s="45"/>
       <c r="H31" s="48"/>
       <c r="J31" s="48"/>
       <c r="S31" s="104"/>
     </row>
-    <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="17" thickBot="1">
       <c r="A32" s="108"/>
       <c r="B32" s="109"/>
       <c r="C32" s="34" t="s">
@@ -5146,7 +5133,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="139"/>
     </row>
-    <row r="33" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="17" thickBot="1">
       <c r="A33" s="108"/>
       <c r="B33" s="109"/>
       <c r="C33" s="123" t="s">
@@ -5174,7 +5161,7 @@
       <c r="R33" s="122"/>
       <c r="S33" s="139"/>
     </row>
-    <row r="34" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="17" thickBot="1">
       <c r="A34" s="108"/>
       <c r="B34" s="109"/>
       <c r="C34" s="106" t="s">
@@ -5184,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="110">
-        <f t="shared" ref="H34:H40" si="0">L34</f>
+        <f t="shared" ref="H34:H36" si="0">L34</f>
         <v>0</v>
       </c>
       <c r="I34" s="122"/>
@@ -5200,7 +5187,7 @@
       <c r="R34" s="122"/>
       <c r="S34" s="139"/>
     </row>
-    <row r="35" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="17" thickBot="1">
       <c r="A35" s="108"/>
       <c r="B35" s="109"/>
       <c r="C35" s="119" t="s">
@@ -5226,7 +5213,7 @@
       <c r="R35" s="11"/>
       <c r="S35" s="129"/>
     </row>
-    <row r="36" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="17" thickBot="1">
       <c r="A36" s="108"/>
       <c r="B36" s="109"/>
       <c r="C36" s="101" t="s">
@@ -5243,76 +5230,12 @@
       </c>
       <c r="S36" s="104"/>
     </row>
-    <row r="37" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="108"/>
       <c r="B37" s="109"/>
-      <c r="C37" s="179" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C37" s="105"/>
       <c r="J37" s="48"/>
-      <c r="L37" s="110">
-        <v>1</v>
-      </c>
       <c r="S37" s="139"/>
-    </row>
-    <row r="38" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="179" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" s="110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="48"/>
-      <c r="L38" s="110">
-        <v>1</v>
-      </c>
-      <c r="S38" s="139"/>
-    </row>
-    <row r="39" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="109"/>
-      <c r="C39" s="179" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J39" s="48"/>
-      <c r="L39" s="110">
-        <v>1</v>
-      </c>
-      <c r="S39" s="139"/>
-    </row>
-    <row r="40" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="179" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="48"/>
-      <c r="L40" s="110">
-        <v>1</v>
-      </c>
-      <c r="S40" s="139"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="108"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="105"/>
-      <c r="J41" s="48"/>
-      <c r="S41" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5321,8 +5244,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J30"/>
@@ -5331,22 +5254,22 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="55" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="60" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="60" customWidth="1"/>
-    <col min="10" max="10" width="98.28515625" style="55" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="55"/>
+    <col min="1" max="1" width="3.5" style="55" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="55" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="60" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="55" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -5357,7 +5280,7 @@
       <c r="I2" s="61"/>
       <c r="J2" s="57"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="58"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5370,7 +5293,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="58"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -5381,7 +5304,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="63"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5408,7 +5331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="58"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5419,7 +5342,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="58"/>
       <c r="C7" s="155" t="s">
         <v>99</v>
@@ -5446,7 +5369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="58"/>
       <c r="C8" s="108" t="s">
         <v>24</v>
@@ -5459,7 +5382,7 @@
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="58"/>
       <c r="C9" s="127" t="s">
         <v>76</v>
@@ -5471,7 +5394,7 @@
       <c r="H9" s="100"/>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="58"/>
       <c r="C10" s="128" t="s">
         <v>55</v>
@@ -5484,7 +5407,7 @@
       <c r="I10" s="97"/>
       <c r="J10" s="96"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="58"/>
       <c r="C11" s="127" t="s">
         <v>78</v>
@@ -5497,7 +5420,7 @@
       <c r="I11" s="54"/>
       <c r="J11" s="113"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="58"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
@@ -5507,7 +5430,7 @@
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="58"/>
       <c r="C13" s="128"/>
       <c r="D13" s="54"/>
@@ -5518,7 +5441,7 @@
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="58"/>
       <c r="C14" s="108"/>
       <c r="D14" s="132"/>
@@ -5529,7 +5452,7 @@
       <c r="I14" s="113"/>
       <c r="J14" s="95"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="58"/>
       <c r="E15" s="103"/>
       <c r="F15" s="54"/>
@@ -5538,7 +5461,7 @@
       <c r="I15" s="113"/>
       <c r="J15" s="95"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="58"/>
       <c r="C16" s="156"/>
       <c r="D16" s="108"/>
@@ -5549,15 +5472,15 @@
       <c r="I16" s="113"/>
       <c r="J16" s="54"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="58"/>
       <c r="C17" s="155"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="58"/>
       <c r="C18" s="108"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="58"/>
       <c r="C19" s="172" t="s">
         <v>106</v>
@@ -5578,19 +5501,19 @@
         <v>42917</v>
       </c>
       <c r="I19" s="178" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J19" s="167" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="58"/>
       <c r="C20" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="180" t="s">
-        <v>138</v>
+      <c r="D20" s="179" t="s">
+        <v>134</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="54">
@@ -5604,16 +5527,16 @@
       </c>
       <c r="I20" s="54"/>
       <c r="J20" s="54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="58"/>
       <c r="C21" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="180" t="s">
-        <v>139</v>
+      <c r="D21" s="179" t="s">
+        <v>135</v>
       </c>
       <c r="E21" s="165"/>
       <c r="F21" s="54">
@@ -5626,41 +5549,41 @@
         <v>42917</v>
       </c>
       <c r="I21" s="97" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J21" s="166" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="58"/>
       <c r="C22" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="180" t="s">
-        <v>140</v>
+      <c r="D22" s="179" t="s">
+        <v>136</v>
       </c>
       <c r="E22" s="54"/>
-      <c r="F22" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="180" t="s">
-        <v>141</v>
+      <c r="F22" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="179" t="s">
+        <v>137</v>
       </c>
       <c r="H22" s="100">
         <v>42917</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="C23" s="155" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="173" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F23" s="55">
         <v>2012</v>
@@ -5672,16 +5595,16 @@
         <v>42917</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="17" customHeight="1">
       <c r="H30" s="168"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5689,8 +5612,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O242"/>
@@ -5699,23 +5622,23 @@
       <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="64" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="68" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="64" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="68" customWidth="1"/>
     <col min="4" max="4" width="4" style="64" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="64"/>
-    <col min="14" max="14" width="15.7109375" style="64" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="64"/>
-    <col min="16" max="16" width="54.7109375" style="64" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="64"/>
+    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="64" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="64"/>
+    <col min="14" max="14" width="15.6640625" style="64" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="64"/>
+    <col min="16" max="16" width="54.6640625" style="64" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" thickBot="1"/>
+    <row r="2" spans="1:15">
       <c r="B2" s="65"/>
       <c r="C2" s="175"/>
       <c r="D2" s="66"/>
@@ -5730,7 +5653,7 @@
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="68"/>
       <c r="B3" s="93"/>
       <c r="C3" s="72" t="s">
@@ -5752,7 +5675,7 @@
       <c r="M3" s="69"/>
       <c r="N3" s="94"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" s="70"/>
       <c r="C4" s="98"/>
       <c r="D4" s="71"/>
@@ -5768,7 +5691,7 @@
       <c r="N4" s="71"/>
       <c r="O4" s="71"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="70"/>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -5783,7 +5706,7 @@
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" s="70"/>
       <c r="D6" s="71"/>
       <c r="G6" s="71"/>
@@ -5796,7 +5719,7 @@
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="B7" s="70"/>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
@@ -5811,7 +5734,7 @@
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="B8" s="70"/>
       <c r="D8" s="71"/>
       <c r="E8" s="71"/>
@@ -5826,7 +5749,7 @@
       <c r="N8" s="71"/>
       <c r="O8" s="71"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="B9" s="70"/>
       <c r="C9" s="98"/>
       <c r="D9" s="71"/>
@@ -5842,7 +5765,7 @@
       <c r="N9" s="71"/>
       <c r="O9" s="71"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="B10" s="70"/>
       <c r="C10" s="98"/>
       <c r="D10" s="71"/>
@@ -5858,7 +5781,7 @@
       <c r="N10" s="71"/>
       <c r="O10" s="71"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="B11" s="70"/>
       <c r="C11" s="98"/>
       <c r="D11" s="71"/>
@@ -5874,7 +5797,7 @@
       <c r="N11" s="71"/>
       <c r="O11" s="71"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="B12" s="70"/>
       <c r="C12" s="98"/>
       <c r="D12" s="71"/>
@@ -5890,7 +5813,7 @@
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="B13" s="70"/>
       <c r="C13" s="98"/>
       <c r="D13" s="71"/>
@@ -5906,7 +5829,7 @@
       <c r="N13" s="71"/>
       <c r="O13" s="71"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="70"/>
       <c r="C14" s="98"/>
       <c r="D14" s="71"/>
@@ -5922,7 +5845,7 @@
       <c r="N14" s="71"/>
       <c r="O14" s="71"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="B15" s="70"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
@@ -5935,7 +5858,7 @@
       <c r="N15" s="71"/>
       <c r="O15" s="71"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="B16" s="70"/>
       <c r="C16" s="98" t="s">
         <v>124</v>
@@ -5955,7 +5878,7 @@
       <c r="N16" s="71"/>
       <c r="O16" s="71"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="70"/>
       <c r="C17" s="98"/>
       <c r="D17" s="71"/>
@@ -5973,7 +5896,7 @@
       <c r="N17" s="71"/>
       <c r="O17" s="71"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="70"/>
       <c r="C18" s="98"/>
       <c r="D18" s="71"/>
@@ -5985,7 +5908,7 @@
       <c r="N18" s="71"/>
       <c r="O18" s="71"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="70"/>
       <c r="C19" s="98"/>
       <c r="D19" s="71"/>
@@ -6001,7 +5924,7 @@
       <c r="N19" s="71"/>
       <c r="O19" s="71"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="70"/>
       <c r="C20" s="98"/>
       <c r="D20" s="71"/>
@@ -6017,7 +5940,7 @@
       <c r="N20" s="71"/>
       <c r="O20" s="71"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="70"/>
       <c r="C21" s="98"/>
       <c r="D21" s="71"/>
@@ -6033,7 +5956,7 @@
       <c r="N21" s="71"/>
       <c r="O21" s="71"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="70"/>
       <c r="C22" s="98"/>
       <c r="D22" s="71"/>
@@ -6049,7 +5972,7 @@
       <c r="N22" s="71"/>
       <c r="O22" s="71"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="70"/>
       <c r="C23" s="98"/>
       <c r="D23" s="71"/>
@@ -6065,7 +5988,7 @@
       <c r="N23" s="71"/>
       <c r="O23" s="71"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="70"/>
       <c r="C24" s="98"/>
       <c r="D24" s="71"/>
@@ -6081,7 +6004,7 @@
       <c r="N24" s="71"/>
       <c r="O24" s="71"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="70"/>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
@@ -6096,7 +6019,7 @@
       <c r="N25" s="71"/>
       <c r="O25" s="71"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="70"/>
       <c r="C26" s="98"/>
       <c r="D26" s="71"/>
@@ -6112,7 +6035,7 @@
       <c r="N26" s="71"/>
       <c r="O26" s="71"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="70"/>
       <c r="C27" s="98"/>
       <c r="D27" s="71"/>
@@ -6128,7 +6051,7 @@
       <c r="N27" s="71"/>
       <c r="O27" s="71"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="70"/>
       <c r="C28" s="98"/>
       <c r="D28" s="71"/>
@@ -6144,7 +6067,7 @@
       <c r="N28" s="71"/>
       <c r="O28" s="71"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="70"/>
       <c r="C29" s="98"/>
       <c r="D29" s="71"/>
@@ -6166,7 +6089,7 @@
       <c r="N29" s="71"/>
       <c r="O29" s="71"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="70"/>
       <c r="C30" s="98"/>
       <c r="D30" s="71"/>
@@ -6189,7 +6112,7 @@
       <c r="N30" s="71"/>
       <c r="O30" s="71"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="70"/>
       <c r="C31" s="98"/>
       <c r="D31" s="71"/>
@@ -6205,7 +6128,7 @@
       <c r="N31" s="71"/>
       <c r="O31" s="71"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="70"/>
       <c r="C32" s="98"/>
       <c r="D32" s="71"/>
@@ -6221,7 +6144,7 @@
       <c r="N32" s="71"/>
       <c r="O32" s="71"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="70"/>
       <c r="C33" s="98"/>
       <c r="E33" s="71"/>
@@ -6236,7 +6159,7 @@
       <c r="N33" s="71"/>
       <c r="O33" s="71"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="70"/>
       <c r="E34" s="71"/>
       <c r="H34" s="71"/>
@@ -6248,7 +6171,7 @@
       <c r="N34" s="71"/>
       <c r="O34" s="71"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="70"/>
       <c r="C35" s="98"/>
       <c r="D35" s="71"/>
@@ -6264,7 +6187,7 @@
       <c r="N35" s="71"/>
       <c r="O35" s="71"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="70"/>
       <c r="C36" s="98"/>
       <c r="D36" s="71"/>
@@ -6280,7 +6203,7 @@
       <c r="N36" s="71"/>
       <c r="O36" s="71"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="70"/>
       <c r="C37" s="98"/>
       <c r="D37" s="71"/>
@@ -6296,7 +6219,7 @@
       <c r="N37" s="71"/>
       <c r="O37" s="71"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="70"/>
       <c r="C38" s="98"/>
       <c r="D38" s="71"/>
@@ -6310,7 +6233,7 @@
       <c r="N38" s="71"/>
       <c r="O38" s="71"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="70"/>
       <c r="C39" s="98"/>
       <c r="D39" s="71"/>
@@ -6330,7 +6253,7 @@
       <c r="N39" s="71"/>
       <c r="O39" s="71"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="70"/>
       <c r="C40" s="98"/>
       <c r="D40" s="71"/>
@@ -6351,7 +6274,7 @@
       <c r="N40" s="71"/>
       <c r="O40" s="71"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="70"/>
       <c r="C41" s="98"/>
       <c r="D41" s="71"/>
@@ -6372,7 +6295,7 @@
       <c r="N41" s="71"/>
       <c r="O41" s="71"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="70"/>
       <c r="C42" s="98"/>
       <c r="K42" s="71"/>
@@ -6381,7 +6304,7 @@
       <c r="N42" s="71"/>
       <c r="O42" s="71"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="70"/>
       <c r="C43" s="98"/>
       <c r="K43" s="71"/>
@@ -6390,7 +6313,7 @@
       <c r="N43" s="71"/>
       <c r="O43" s="71"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="70"/>
       <c r="C44" s="98"/>
       <c r="K44" s="71"/>
@@ -6399,7 +6322,7 @@
       <c r="N44" s="71"/>
       <c r="O44" s="71"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="70"/>
       <c r="C45" s="98"/>
       <c r="K45" s="71"/>
@@ -6408,7 +6331,7 @@
       <c r="N45" s="71"/>
       <c r="O45" s="71"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="70"/>
       <c r="C46" s="98"/>
       <c r="E46" s="99"/>
@@ -6419,7 +6342,7 @@
       <c r="N46" s="71"/>
       <c r="O46" s="71"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="70"/>
       <c r="C47" s="98"/>
       <c r="E47" s="71"/>
@@ -6430,7 +6353,7 @@
       <c r="N47" s="71"/>
       <c r="O47" s="71"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="70"/>
       <c r="C48" s="98" t="s">
         <v>97</v>
@@ -6450,7 +6373,7 @@
       <c r="N48" s="71"/>
       <c r="O48" s="71"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="70"/>
       <c r="C49" s="98"/>
       <c r="E49" s="64">
@@ -6469,7 +6392,7 @@
       <c r="N49" s="71"/>
       <c r="O49" s="71"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="70"/>
       <c r="C50" s="98"/>
       <c r="J50"/>
@@ -6479,7 +6402,7 @@
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="70"/>
       <c r="D51" s="71"/>
       <c r="K51" s="71"/>
@@ -6488,7 +6411,7 @@
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="70"/>
       <c r="C52" s="98"/>
       <c r="D52" s="71"/>
@@ -6504,7 +6427,7 @@
       <c r="N52" s="71"/>
       <c r="O52" s="71"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="70"/>
       <c r="C53" s="98"/>
       <c r="D53" s="71"/>
@@ -6524,7 +6447,7 @@
       <c r="N53" s="71"/>
       <c r="O53" s="71"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="70"/>
       <c r="C54" s="98"/>
       <c r="D54" s="71"/>
@@ -6540,7 +6463,7 @@
       <c r="N54" s="71"/>
       <c r="O54" s="71"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="70"/>
       <c r="C55" s="98"/>
       <c r="D55" s="71"/>
@@ -6560,7 +6483,7 @@
       <c r="N55" s="71"/>
       <c r="O55" s="71"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="70"/>
       <c r="C56" s="98"/>
       <c r="K56" s="71"/>
@@ -6569,7 +6492,7 @@
       <c r="N56" s="71"/>
       <c r="O56" s="71"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="70"/>
       <c r="C57" s="98"/>
       <c r="E57" s="174">
@@ -6587,7 +6510,7 @@
       <c r="N57" s="71"/>
       <c r="O57" s="71"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="70"/>
       <c r="C58" s="98"/>
       <c r="K58" s="71"/>
@@ -6596,7 +6519,7 @@
       <c r="N58" s="71"/>
       <c r="O58" s="71"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="70"/>
       <c r="C59" s="98"/>
       <c r="K59" s="71"/>
@@ -6605,7 +6528,7 @@
       <c r="N59" s="71"/>
       <c r="O59" s="71"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="70"/>
       <c r="C60" s="98"/>
       <c r="K60" s="71"/>
@@ -6614,7 +6537,7 @@
       <c r="N60" s="71"/>
       <c r="O60" s="71"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="70"/>
       <c r="C61" s="98"/>
       <c r="K61" s="71"/>
@@ -6623,7 +6546,7 @@
       <c r="N61" s="71"/>
       <c r="O61" s="71"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="70"/>
       <c r="C62" s="98"/>
       <c r="K62" s="71"/>
@@ -6632,7 +6555,7 @@
       <c r="N62" s="71"/>
       <c r="O62" s="71"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="70"/>
       <c r="C63" s="98"/>
       <c r="K63" s="71"/>
@@ -6641,7 +6564,7 @@
       <c r="N63" s="71"/>
       <c r="O63" s="71"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="70"/>
       <c r="C64" s="98"/>
       <c r="K64" s="71"/>
@@ -6650,7 +6573,7 @@
       <c r="N64" s="71"/>
       <c r="O64" s="71"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" s="70"/>
       <c r="C65" s="98"/>
       <c r="K65" s="71"/>
@@ -6659,7 +6582,7 @@
       <c r="N65" s="71"/>
       <c r="O65" s="71"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" s="70"/>
       <c r="C66" s="98"/>
       <c r="K66" s="71"/>
@@ -6668,7 +6591,7 @@
       <c r="N66" s="71"/>
       <c r="O66" s="71"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" s="70"/>
       <c r="C67" s="98"/>
       <c r="K67" s="71"/>
@@ -6677,7 +6600,7 @@
       <c r="N67" s="71"/>
       <c r="O67" s="71"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" s="70"/>
       <c r="C68" s="98"/>
       <c r="K68" s="71"/>
@@ -6686,7 +6609,7 @@
       <c r="N68" s="71"/>
       <c r="O68" s="71"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" s="70"/>
       <c r="C69" s="98"/>
       <c r="K69" s="71"/>
@@ -6695,7 +6618,7 @@
       <c r="N69" s="71"/>
       <c r="O69" s="71"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" s="70"/>
       <c r="C70" s="98"/>
       <c r="K70" s="71"/>
@@ -6704,253 +6627,253 @@
       <c r="N70" s="71"/>
       <c r="O70" s="71"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" s="70"/>
       <c r="N71" s="71"/>
       <c r="O71" s="71"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" s="70"/>
       <c r="N72" s="71"/>
       <c r="O72" s="71"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" s="70"/>
       <c r="N73" s="71"/>
       <c r="O73" s="71"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" s="70"/>
       <c r="C74" s="26"/>
       <c r="N74" s="71"/>
       <c r="O74" s="71"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" s="70"/>
       <c r="C75" s="98"/>
       <c r="D75" s="71"/>
       <c r="N75" s="71"/>
       <c r="O75" s="71"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" s="70"/>
       <c r="C76" s="98"/>
       <c r="N76" s="71"/>
       <c r="O76" s="71"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" s="70"/>
       <c r="E77" s="152"/>
       <c r="N77" s="71"/>
       <c r="O77" s="71"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" s="70"/>
       <c r="N78" s="71"/>
       <c r="O78" s="71"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" s="70"/>
       <c r="N79" s="71"/>
       <c r="O79" s="71"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" s="70"/>
       <c r="F80" s="130"/>
       <c r="N80" s="71"/>
       <c r="O80" s="71"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" s="70"/>
       <c r="N81" s="71"/>
       <c r="O81" s="71"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" s="70"/>
       <c r="N82" s="71"/>
       <c r="O82" s="71"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" s="70"/>
       <c r="N83" s="71"/>
       <c r="O83" s="71"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" s="70"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" s="70"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" s="70"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" s="70"/>
       <c r="C87" s="98"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" s="70"/>
       <c r="C88" s="98"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" s="70"/>
       <c r="C89" s="98"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" s="70"/>
       <c r="C90" s="98"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" s="70"/>
       <c r="C91" s="98"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" s="70"/>
       <c r="C92" s="98"/>
       <c r="E92" s="131"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" s="70"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" s="70"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" s="70"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" s="70"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="70"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="70"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="70"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="70"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="70"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="70"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="70"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="70"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="70"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="70"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="70"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="70"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="70"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="70"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="70"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="70"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="70"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="70"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="70"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="70"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="70"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="70"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="70"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="70"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="70"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="70"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="70"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="70"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="70"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="70"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="70"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="70"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4">
       <c r="B129" s="70"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4">
       <c r="B130" s="70"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4">
       <c r="B131" s="70"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4">
       <c r="B132" s="70"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4">
       <c r="B133" s="70"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4">
       <c r="B134" s="70"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4">
       <c r="B135" s="70"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4">
       <c r="B136" s="70"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4">
       <c r="B137" s="70"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4">
       <c r="B138" s="70"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4">
       <c r="B139" s="70"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4">
       <c r="B140" s="70"/>
       <c r="C140" s="68" t="s">
         <v>107</v>
@@ -6959,200 +6882,200 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4">
       <c r="B141" s="70"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4">
       <c r="B142" s="70"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4">
       <c r="B143" s="70"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4">
       <c r="B144" s="70"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="151"/>
       <c r="B145" s="153"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="151"/>
       <c r="B146" s="153"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="151"/>
       <c r="B147" s="153"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="151"/>
       <c r="B148" s="153"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="151"/>
       <c r="B149" s="153"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="151"/>
       <c r="B150" s="153"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="151"/>
       <c r="B151" s="153"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="151"/>
       <c r="B152" s="153"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="151"/>
       <c r="B153" s="153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="151"/>
       <c r="B154" s="153"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="151"/>
       <c r="B155" s="153"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="151"/>
       <c r="B156" s="153"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="151"/>
       <c r="B157" s="153"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="151"/>
       <c r="B158" s="153"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="151"/>
       <c r="B159" s="153"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="151"/>
       <c r="B160" s="153"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="151"/>
       <c r="B161" s="153"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="151"/>
       <c r="B162" s="153"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="151"/>
       <c r="B163" s="153"/>
       <c r="E163" s="64" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="151"/>
       <c r="B164" s="153"/>
       <c r="E164" s="64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="151"/>
       <c r="B165" s="153"/>
       <c r="E165" s="64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="151"/>
       <c r="B166" s="153"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="151"/>
       <c r="B167" s="153"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="151"/>
       <c r="B168" s="153"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="151"/>
       <c r="B169" s="153"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="151"/>
       <c r="B170" s="153"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="151"/>
       <c r="B171" s="153"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="151"/>
       <c r="B172" s="153"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="151"/>
       <c r="B173" s="153"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="151"/>
       <c r="B174" s="153"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="151"/>
       <c r="B175" s="153"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="151"/>
       <c r="B176" s="153"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="151"/>
       <c r="B177" s="153"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="151"/>
       <c r="B178" s="153"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="151"/>
       <c r="B179" s="153"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="151"/>
       <c r="B180" s="153"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="151"/>
       <c r="B181" s="153"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="151"/>
       <c r="B182" s="153"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="151"/>
       <c r="B183" s="153"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="151"/>
       <c r="B184" s="153"/>
       <c r="C184" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E184" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="F184" s="181">
+        <v>141</v>
+      </c>
+      <c r="F184" s="180">
         <v>10</v>
       </c>
       <c r="G184" s="68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="151"/>
       <c r="B185" s="153"/>
       <c r="E185" s="178" t="s">
@@ -7163,71 +7086,71 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="151"/>
       <c r="B186" s="153"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="151"/>
       <c r="B187" s="153"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="151"/>
       <c r="B188" s="153"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="151"/>
       <c r="B189" s="153"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="151"/>
       <c r="B190" s="153"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="151"/>
       <c r="B191" s="153"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="151"/>
       <c r="B192" s="153"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="151"/>
       <c r="B193" s="153"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="151"/>
       <c r="B194" s="153"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="151"/>
       <c r="B195" s="153"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="151"/>
       <c r="B196" s="153"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="151"/>
       <c r="B197" s="153"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="151"/>
       <c r="B198" s="153"/>
       <c r="C198" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E198" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F198" s="64">
         <v>10</v>
       </c>
       <c r="G198" s="68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="151"/>
       <c r="B199" s="153"/>
       <c r="E199" s="178" t="s">
@@ -7238,71 +7161,71 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="151"/>
       <c r="B200" s="153"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="151"/>
       <c r="B201" s="153"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="151"/>
       <c r="B202" s="153"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="151"/>
       <c r="B203" s="153"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="151"/>
       <c r="B204" s="153"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="151"/>
       <c r="B205" s="153"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="151"/>
       <c r="B206" s="153"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="151"/>
       <c r="B207" s="153"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="151"/>
       <c r="B208" s="153"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="151"/>
       <c r="B209" s="153"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="151"/>
       <c r="B210" s="153"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="151"/>
       <c r="B211" s="153"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="151"/>
       <c r="B212" s="153"/>
       <c r="C212" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E212" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F212" s="64">
         <v>11</v>
       </c>
       <c r="G212" s="68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="151"/>
       <c r="B213" s="153"/>
       <c r="E213" s="178" t="s">
@@ -7313,67 +7236,67 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="151"/>
       <c r="B214" s="153"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="151"/>
       <c r="B215" s="153"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="151"/>
       <c r="B216" s="153"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="151"/>
       <c r="B217" s="153"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="151"/>
       <c r="B218" s="153"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="151"/>
       <c r="B219" s="153"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="151"/>
       <c r="B220" s="153"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="151"/>
       <c r="B221" s="153"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="151"/>
       <c r="B222" s="153"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="151"/>
       <c r="B223" s="153"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="151"/>
       <c r="B224" s="153"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="151"/>
       <c r="B225" s="153"/>
       <c r="C225" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E225" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F225" s="64">
         <v>14.2</v>
       </c>
       <c r="G225" s="68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="151"/>
       <c r="B226" s="153"/>
       <c r="E226" s="178" t="s">
@@ -7384,67 +7307,67 @@
         <v>0.93421052631578949</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="151"/>
       <c r="B227" s="153"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="151"/>
       <c r="B228" s="153"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="151"/>
       <c r="B229" s="153"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="151"/>
       <c r="B230" s="153"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="151"/>
       <c r="B231" s="153"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="151"/>
       <c r="B232" s="153"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="151"/>
       <c r="B233" s="153"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="151"/>
       <c r="B234" s="153"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="151"/>
       <c r="B235" s="153"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="151"/>
       <c r="B236" s="153"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="151"/>
       <c r="B237" s="153"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="151"/>
       <c r="B238" s="153"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="151"/>
       <c r="B239" s="153"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="151"/>
       <c r="B240" s="153"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="151"/>
       <c r="B241" s="153"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="151"/>
       <c r="B242" s="153"/>
     </row>

--- a/nodes_source_analyses/industry/industry_chemicals_other_steam_recompression_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_chemicals_other_steam_recompression_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CFD4C4-FA1A-994E-A4D1-64A60AE0932A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C9C02-37C2-F949-85E3-0EB690F449E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
   <si>
     <t>Source</t>
   </si>
@@ -572,6 +578,9 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -582,7 +591,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -862,6 +871,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1669,7 +1684,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1955,6 +1970,7 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="485">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3445,12 +3461,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="22"/>
+    <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1">
@@ -3624,23 +3640,23 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4075,15 +4091,15 @@
         <v>62</v>
       </c>
       <c r="E29" s="112">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="105"/>
       <c r="G29" s="105" t="s">
         <v>63</v>
       </c>
       <c r="H29" s="105"/>
-      <c r="I29" s="170" t="s">
-        <v>111</v>
+      <c r="I29" s="191" t="s">
+        <v>148</v>
       </c>
       <c r="J29" s="111"/>
     </row>
@@ -4374,30 +4390,30 @@
   </sheetPr>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="17" width="15.83203125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" style="42" customWidth="1"/>
-    <col min="19" max="19" width="37.33203125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="17" width="15.85546875" style="42" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" style="42" customWidth="1"/>
+    <col min="19" max="19" width="37.28515625" style="42" customWidth="1"/>
     <col min="20" max="20" width="11" style="42" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="42" customWidth="1"/>
-    <col min="22" max="22" width="22.33203125" style="42" customWidth="1"/>
-    <col min="23" max="16384" width="10.6640625" style="42"/>
+    <col min="21" max="21" width="2.42578125" style="42" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" style="42" customWidth="1"/>
+    <col min="23" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5254,18 +5270,18 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="55" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="55" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="60" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="55" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="55"/>
+    <col min="1" max="1" width="3.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="55" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="60" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="60" customWidth="1"/>
+    <col min="10" max="10" width="98.28515625" style="55" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5622,19 +5638,19 @@
       <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="64" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="4" style="64" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="64" customWidth="1"/>
-    <col min="7" max="13" width="10.6640625" style="64"/>
-    <col min="14" max="14" width="15.6640625" style="64" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="64"/>
-    <col min="16" max="16" width="54.6640625" style="64" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="64"/>
+    <col min="5" max="5" width="13.140625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="64"/>
+    <col min="14" max="14" width="15.7109375" style="64" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="64"/>
+    <col min="16" max="16" width="54.7109375" style="64" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>
